--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>Step No</t>
   </si>
@@ -147,15 +147,15 @@
     <t>Click on search button</t>
   </si>
   <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>Click on create application</t>
+  </si>
+  <si>
     <t>Wait for page to load</t>
   </si>
   <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>Click on create application</t>
-  </si>
-  <si>
     <t>SelectByVisibleText</t>
   </si>
   <si>
@@ -928,24 +928,6 @@
   </si>
   <si>
     <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
   </si>
   <si>
     <t>Actions</t>
@@ -1298,15 +1280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,15 +1301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1336,7 +1310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,7 +1318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,6 +1340,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -1373,23 +1370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,7 +1385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1420,22 +1401,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,7 +1444,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,37 +1546,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,121 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,6 +1677,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1714,7 +1720,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1746,30 +1752,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1787,15 +1769,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1813,130 +1795,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2339,10 +2321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2476,7 +2458,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2580,7 +2562,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2626,7 +2608,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -2635,20 +2617,20 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
@@ -2656,10 +2638,10 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>13</v>
@@ -2668,29 +2650,31 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
@@ -2698,107 +2682,107 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="9">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>19</v>
@@ -2807,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
@@ -2820,29 +2804,31 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E23" s="10">
+        <v>10001</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>19</v>
@@ -2851,106 +2837,108 @@
         <v>20</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="10">
-        <v>10001</v>
+        <v>10</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>42</v>
@@ -2959,22 +2947,22 @@
         <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>42</v>
@@ -2983,22 +2971,22 @@
         <v>20</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>42</v>
@@ -3007,204 +2995,209 @@
         <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>81</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9">
+        <v>36</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="C35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F35" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="10">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="10"/>
+      <c r="C37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="9">
+        <v>39</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="D38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:13">
       <c r="A39" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="E39" s="9">
+        <v>10001</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="9">
-        <v>39</v>
+      <c r="I39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:13">
+      <c r="A40" s="10">
+        <v>41</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>47</v>
@@ -3213,41 +3206,42 @@
         <v>15</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:13">
-      <c r="A41" s="10">
-        <v>40</v>
+      <c r="A41" s="9">
+        <v>42</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="9">
-        <v>10001</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="11"/>
       <c r="J41" s="10"/>
@@ -3255,9 +3249,9 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" s="4" customFormat="1" spans="1:13">
+    <row r="42" spans="1:8">
       <c r="A42" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>47</v>
@@ -3266,27 +3260,18 @@
         <v>15</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E42" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:13">
-      <c r="A43" s="9">
-        <v>42</v>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="10">
+        <v>44</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>42</v>
@@ -3295,147 +3280,150 @@
         <v>20</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10">
-        <v>43</v>
+      <c r="A44" s="9">
+        <v>45</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
+        <v>10</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="9">
-        <v>45</v>
+    <row r="46" s="5" customFormat="1" spans="1:8">
+      <c r="A46" s="10">
+        <v>47</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" s="6" customFormat="1" spans="1:8">
+      <c r="A47" s="9">
+        <v>48</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>5</v>
+      <c r="D47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H47" s="9"/>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:8">
       <c r="A48" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" s="6" customFormat="1" spans="1:8">
-      <c r="A49" s="9">
-        <v>48</v>
+      <c r="A49" s="10">
+        <v>50</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="H49" s="9"/>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:8">
-      <c r="A50" s="10">
-        <v>49</v>
+      <c r="A50" s="9">
+        <v>51</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>65</v>
@@ -3444,22 +3432,22 @@
         <v>15</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" s="6" customFormat="1" spans="1:8">
+    <row r="51" s="5" customFormat="1" spans="1:8">
       <c r="A51" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>42</v>
@@ -3468,70 +3456,70 @@
         <v>20</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" s="5" customFormat="1" spans="1:8">
-      <c r="A52" s="9">
-        <v>51</v>
+    <row r="52" s="6" customFormat="1" spans="1:8">
+      <c r="A52" s="10">
+        <v>53</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="H52" s="10"/>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:8">
-      <c r="A53" s="10">
-        <v>52</v>
+      <c r="A53" s="9">
+        <v>54</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>100</v>
+        <v>136</v>
+      </c>
+      <c r="E53" s="9">
+        <v>10001</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="H53" s="9"/>
     </row>
     <row r="54" s="6" customFormat="1" spans="1:8">
       <c r="A54" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>47</v>
@@ -3540,94 +3528,88 @@
         <v>15</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>104</v>
+        <v>139</v>
+      </c>
+      <c r="E54" s="10">
+        <v>9789123456</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:8">
-      <c r="A55" s="9">
-        <v>54</v>
+      <c r="A55" s="10">
+        <v>56</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="9">
-        <v>10001</v>
+        <v>142</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" s="6" customFormat="1" spans="1:8">
-      <c r="A56" s="10">
-        <v>55</v>
+    <row r="56" s="5" customFormat="1" spans="1:8">
+      <c r="A56" s="9">
+        <v>57</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="10">
-        <v>9789123456</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" s="5" customFormat="1" spans="1:8">
+    <row r="57" s="6" customFormat="1" spans="1:8">
       <c r="A57" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>143</v>
+        <v>11</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9">
+        <v>8</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="H57" s="9"/>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:8">
-      <c r="A58" s="9">
-        <v>57</v>
+      <c r="A58" s="10">
+        <v>59</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>19</v>
@@ -3636,20 +3618,16 @@
         <v>15</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" s="6" customFormat="1" spans="1:8">
-      <c r="A59" s="10">
-        <v>58</v>
+      <c r="A59" s="9">
+        <v>60</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>11</v>
@@ -3657,37 +3635,33 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>4</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:8">
       <c r="A60" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" s="6" customFormat="1" spans="1:8">
-      <c r="A61" s="9">
-        <v>60</v>
+    <row r="61" s="5" customFormat="1" spans="1:8">
+      <c r="A61" s="10">
+        <v>62</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>11</v>
@@ -3695,33 +3669,37 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" s="5" customFormat="1" spans="1:8">
-      <c r="A62" s="10">
-        <v>61</v>
+    <row r="62" s="6" customFormat="1" spans="1:8">
+      <c r="A62" s="9">
+        <v>63</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H62" s="10"/>
     </row>
     <row r="63" s="5" customFormat="1" spans="1:8">
       <c r="A63" s="10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>11</v>
@@ -3729,37 +3707,35 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:8">
-      <c r="A64" s="9">
-        <v>63</v>
+      <c r="A64" s="10">
+        <v>65</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="H64" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="65" s="5" customFormat="1" spans="1:8">
-      <c r="A65" s="10">
-        <v>64</v>
+      <c r="A65" s="9">
+        <v>66</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>11</v>
@@ -3767,109 +3743,121 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" s="6" customFormat="1" spans="1:8">
+    <row r="66" s="5" customFormat="1" spans="1:8">
       <c r="A66" s="10">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" s="5" customFormat="1" spans="1:8">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" s="6" customFormat="1" spans="1:8">
+      <c r="A67" s="10">
+        <v>68</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9">
-        <v>4</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10">
+        <v>2</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" s="5" customFormat="1" spans="1:8">
-      <c r="A68" s="10">
-        <v>67</v>
+      <c r="A68" s="9">
+        <v>69</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H68" s="9"/>
     </row>
     <row r="69" s="6" customFormat="1" spans="1:8">
       <c r="A69" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10">
-        <v>2</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" s="5" customFormat="1" spans="1:8">
-      <c r="A70" s="9">
-        <v>69</v>
+      <c r="A70" s="10">
+        <v>71</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="F70" s="9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" s="6" customFormat="1" spans="1:8">
-      <c r="A71" s="10">
-        <v>70</v>
+    <row r="71" s="5" customFormat="1" spans="1:8">
+      <c r="A71" s="9">
+        <v>72</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -3878,22 +3866,22 @@
         <v>20</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:8">
+    <row r="72" s="6" customFormat="1" spans="1:8">
       <c r="A72" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>65</v>
@@ -3902,112 +3890,110 @@
         <v>15</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H72" s="9"/>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:8">
-      <c r="A73" s="9">
-        <v>72</v>
+      <c r="A73" s="10">
+        <v>74</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1235647899</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H73" s="10"/>
     </row>
     <row r="74" s="6" customFormat="1" spans="1:8">
-      <c r="A74" s="10">
-        <v>73</v>
+      <c r="A74" s="9">
+        <v>75</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" s="5" customFormat="1" spans="1:8">
       <c r="A75" s="10">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" s="5" customFormat="1" spans="1:8">
+      <c r="A76" s="10">
+        <v>77</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="10">
-        <v>1235647899</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" s="6" customFormat="1" spans="1:8">
-      <c r="A76" s="9">
-        <v>75</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D76" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="E76" s="9">
+        <v>97890456789</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" s="5" customFormat="1" spans="1:8">
-      <c r="A77" s="10">
-        <v>76</v>
+    <row r="77" s="6" customFormat="1" spans="1:8">
+      <c r="A77" s="9">
+        <v>78</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>19</v>
@@ -4016,81 +4002,81 @@
         <v>20</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H77" s="10"/>
     </row>
     <row r="78" s="5" customFormat="1" spans="1:8">
       <c r="A78" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E78" s="9">
-        <v>97890456789</v>
+        <v>1230</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H78" s="9"/>
     </row>
     <row r="79" s="6" customFormat="1" spans="1:8">
-      <c r="A79" s="9">
-        <v>78</v>
+      <c r="A79" s="10">
+        <v>80</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1550</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" s="6" customFormat="1" spans="1:8">
+      <c r="A80" s="9">
+        <v>81</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" s="5" customFormat="1" spans="1:8">
-      <c r="A80" s="10">
-        <v>79</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C80" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1230</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>191</v>
@@ -4099,31 +4085,29 @@
     </row>
     <row r="81" s="6" customFormat="1" spans="1:8">
       <c r="A81" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="10">
-        <v>1550</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H81" s="10"/>
     </row>
     <row r="82" s="6" customFormat="1" spans="1:8">
-      <c r="A82" s="9">
-        <v>81</v>
+      <c r="A82" s="10">
+        <v>83</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>19</v>
@@ -4132,20 +4116,20 @@
         <v>20</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H82" s="9"/>
     </row>
     <row r="83" s="6" customFormat="1" spans="1:8">
-      <c r="A83" s="10">
-        <v>82</v>
+      <c r="A83" s="9">
+        <v>84</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>19</v>
@@ -4154,64 +4138,62 @@
         <v>20</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>198</v>
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" s="6" customFormat="1" spans="1:8">
+    <row r="84" s="5" customFormat="1" spans="1:8">
       <c r="A84" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" s="6" customFormat="1" spans="1:8">
-      <c r="A85" s="9">
-        <v>84</v>
+    <row r="85" s="5" customFormat="1" spans="1:8">
+      <c r="A85" s="10">
+        <v>86</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10">
+        <v>8</v>
+      </c>
       <c r="F85" s="10" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" s="5" customFormat="1" spans="1:8">
-      <c r="A86" s="10">
-        <v>85</v>
+    <row r="86" spans="1:8">
+      <c r="A86" s="9">
+        <v>87</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>19</v>
@@ -4220,20 +4202,16 @@
         <v>15</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" s="5" customFormat="1" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>11</v>
@@ -4241,28 +4219,24 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10">
-        <v>4</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="9">
-        <v>87</v>
+      <c r="A88" s="10">
+        <v>89</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -4270,8 +4244,8 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="10">
-        <v>88</v>
+      <c r="A89" s="9">
+        <v>90</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>11</v>
@@ -4279,7 +4253,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -4287,25 +4261,29 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="9">
-        <v>90</v>
+      <c r="A91" s="10">
+        <v>92</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>11</v>
@@ -4313,37 +4291,35 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="10">
-        <v>91</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H92" s="9"/>
+      <c r="A92" s="9">
+        <v>93</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H92" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="10">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>11</v>
@@ -4351,35 +4327,37 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="9">
-        <v>93</v>
+      <c r="A94" s="10">
+        <v>95</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" s="10">
-        <v>6</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="10">
-        <v>94</v>
+      <c r="A95" s="9">
+        <v>96</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>11</v>
@@ -4387,83 +4365,83 @@
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10">
-        <v>4</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>203</v>
+        <v>15</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="E96" s="10"/>
-      <c r="F96" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="9">
-        <v>96</v>
-      </c>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="10">
+        <v>98</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
         <v>4</v>
       </c>
-      <c r="F97" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="10">
-        <v>97</v>
+      <c r="A98" s="9">
+        <v>99</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10" t="s">
-        <v>198</v>
+      <c r="C98" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
-        <v>98</v>
-      </c>
-      <c r="B99" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="D99" s="12"/>
       <c r="E99" s="9">
         <v>3</v>
       </c>
@@ -4472,234 +4450,240 @@
       <c r="H99" s="10"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="9">
-        <v>99</v>
+      <c r="A100" s="10">
+        <v>101</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="10">
-        <v>100</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="9">
-        <v>2</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="A101" s="9">
+        <v>102</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10">
-        <v>101</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="H102" s="10"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="9">
-        <v>102</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="A103" s="10">
+        <v>104</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>32</v>
+      <c r="D103" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="10">
-        <v>103</v>
+      <c r="A104" s="9">
+        <v>105</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9">
+        <v>4</v>
+      </c>
       <c r="F104" s="9" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>215</v>
+        <v>20</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="E105" s="10"/>
-      <c r="F105" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="9">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
+      <c r="A106" s="10">
+        <v>107</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9">
-        <v>4</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10">
+        <v>5</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="10">
-        <v>106</v>
+      <c r="A107" s="9">
+        <v>108</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="12" t="s">
-        <v>218</v>
+      <c r="D107" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="F107" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10">
-        <v>5</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="9">
-        <v>108</v>
+      <c r="A109" s="10">
+        <v>110</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="10">
-        <v>109</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="9">
+        <v>111</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>221</v>
@@ -4708,11 +4692,11 @@
         <v>20</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>191</v>
@@ -4720,52 +4704,52 @@
       <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="9">
-        <v>111</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>65</v>
+      <c r="A112" s="10">
+        <v>113</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="10">
-        <v>112</v>
+      <c r="A113" s="9">
+        <v>114</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>19</v>
@@ -4774,11 +4758,11 @@
         <v>20</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>35</v>
@@ -4786,158 +4770,154 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="9">
-        <v>114</v>
+      <c r="A115" s="10">
+        <v>116</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E115" s="10"/>
+      <c r="D115" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>234</v>
+      </c>
       <c r="F115" s="10" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="10">
-        <v>115</v>
+      <c r="A116" s="9">
+        <v>117</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="F116" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="10">
+        <v>119</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="9">
-        <v>117</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C118" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>131</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="10">
-        <v>118</v>
+      <c r="A119" s="9">
+        <v>120</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E119" s="10"/>
+        <v>242</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>241</v>
+        <v>59</v>
+      </c>
+      <c r="E120" s="10">
+        <v>10001</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="9">
-        <v>120</v>
+      <c r="A121" s="10">
+        <v>122</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="E121" s="10">
+        <v>9789045678</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="10">
-        <v>121</v>
+      <c r="A122" s="9">
+        <v>123</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>47</v>
@@ -4946,10 +4926,10 @@
         <v>15</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="E122" s="10">
-        <v>10001</v>
+        <v>21331</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -4957,7 +4937,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="10">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>47</v>
@@ -4966,50 +4946,50 @@
         <v>15</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E123" s="10">
-        <v>9789045678</v>
+        <v>97989898982</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="9">
-        <v>123</v>
+      <c r="A124" s="10">
+        <v>125</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E124" s="10">
-        <v>21331</v>
+        <v>247</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="10">
-        <v>124</v>
+      <c r="A125" s="9">
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E125" s="10">
-        <v>97989898982</v>
+        <v>248</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -5017,7 +4997,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>65</v>
@@ -5026,7 +5006,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>143</v>
@@ -5036,40 +5016,34 @@
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="9">
-        <v>126</v>
+      <c r="A127" s="10">
+        <v>128</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>249</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="10">
-        <v>127</v>
+      <c r="A128" s="9">
+        <v>129</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>143</v>
+        <v>11</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10">
+        <v>2</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
@@ -5077,59 +5051,67 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10">
-        <v>128</v>
-      </c>
-      <c r="B129" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="10">
+        <v>131</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="9">
-        <v>129</v>
-      </c>
-      <c r="B130" s="10" t="s">
+      <c r="D130" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="9">
+        <v>132</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10">
-        <v>2</v>
-      </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="10">
-        <v>130</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9">
+        <v>8</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>19</v>
@@ -5138,20 +5120,16 @@
         <v>15</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E132" s="10"/>
-      <c r="F132" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="9">
-        <v>132</v>
+      <c r="A133" s="10">
+        <v>134</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>11</v>
@@ -5159,28 +5137,24 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>4</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="10">
-        <v>133</v>
+      <c r="A134" s="9">
+        <v>135</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -5189,7 +5163,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>11</v>
@@ -5197,33 +5171,37 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="9">
-        <v>135</v>
+      <c r="A136" s="10">
+        <v>137</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="10">
-        <v>136</v>
+      <c r="A137" s="9">
+        <v>138</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>11</v>
@@ -5231,7 +5209,7 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
@@ -5239,29 +5217,27 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H138" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="H138" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="9">
-        <v>138</v>
+      <c r="A139" s="10">
+        <v>140</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>11</v>
@@ -5269,35 +5245,39 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="10">
-        <v>139</v>
+      <c r="A140" s="9">
+        <v>141</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>234</v>
+      </c>
       <c r="F140" s="10" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H140" s="10">
-        <v>6</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="10">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>11</v>
@@ -5305,627 +5285,527 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="9">
-        <v>141</v>
+      <c r="A142" s="10">
+        <v>143</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>234</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
       <c r="F142" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="10">
-        <v>142</v>
+      <c r="A143" s="9">
+        <v>144</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9">
-        <v>2</v>
-      </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="H143" s="9"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H144" s="10"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="9">
-        <v>144</v>
+      <c r="A145" s="10">
+        <v>146</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E145" s="9"/>
+        <v>261</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="F145" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H145" s="9"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="10">
-        <v>145</v>
-      </c>
+      <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H146" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10">
+        <v>5</v>
+      </c>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="10">
-        <v>146</v>
-      </c>
-      <c r="B147" s="9" t="s">
+      <c r="A147" s="9">
+        <v>147</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H147" s="10"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="10">
+        <v>148</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H147" s="9"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="9">
-        <v>147</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H148" s="10"/>
+      <c r="C148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="10">
-        <v>148</v>
-      </c>
-      <c r="B149" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H149" s="9"/>
+      <c r="D149" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="10">
-        <v>149</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="10" t="s">
+      <c r="A150" s="9">
+        <v>150</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H150" s="10"/>
+      <c r="D150" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="9">
-        <v>150</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H151" s="9"/>
+      <c r="A151" s="10">
+        <v>151</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10">
+        <v>8</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="9">
+        <v>153</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10">
-        <v>4</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="10"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="10">
-        <v>152</v>
-      </c>
-      <c r="B153" s="10" t="s">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9">
+        <v>1</v>
+      </c>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="10">
+        <v>154</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="9">
-        <v>153</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9">
-        <v>1</v>
-      </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
+      <c r="C154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="10">
-        <v>154</v>
-      </c>
-      <c r="B155" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9">
+        <v>1</v>
+      </c>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="9">
+        <v>156</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="10">
-        <v>155</v>
-      </c>
-      <c r="B156" s="9" t="s">
+      <c r="C156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="10">
+        <v>157</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9">
-        <v>1</v>
-      </c>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="9">
-        <v>156</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H157" s="10"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9">
+        <v>3</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="10">
-        <v>157</v>
-      </c>
-      <c r="B158" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="9">
+        <v>159</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H159" s="9"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="10">
+        <v>160</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9">
-        <v>3</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="10">
-        <v>158</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="9">
-        <v>159</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="H160" s="9"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10">
+        <v>2</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="10">
-        <v>160</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10">
-        <v>2</v>
-      </c>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="10">
-        <v>161</v>
-      </c>
-      <c r="B162" s="9" t="s">
+      <c r="A162" s="9">
+        <v>162</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H162" s="9"/>
+      <c r="D162" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H162" s="10"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="9">
-        <v>162</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163" s="10" t="s">
+      <c r="A163" s="10">
+        <v>163</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D163" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H163" s="10"/>
+      <c r="D163" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="9">
+        <v>9889656446</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="10">
-        <v>163</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C164" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E164" s="9">
-        <v>9889656446</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H164" s="9"/>
+      <c r="D164" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H164" s="10"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="10">
-        <v>164</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="9">
+      <c r="A165" s="9">
         <v>165</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B165" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9">
-        <v>4</v>
-      </c>
-      <c r="F166" s="9" t="s">
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9">
+        <v>8</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H166" s="9"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="10">
-        <v>166</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H167" s="10"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="10">
-        <v>167</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9">
-        <v>5</v>
-      </c>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="9">
-        <v>168</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G169" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="H169" s="10"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="10">
-        <v>169</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="4">
-        <v>5</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H165" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B171:B1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B166:B1048576">
       <formula1>DataList!$C$2:$C$120</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C171:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C166:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B94 C94 C95 C109 B118 C118 B140 C140 C141 C170 B2:B38 B39:B93 B95:B117 B119:B139 B141:B157 B158:B170 C2:C3 C7:C9 C14:C38 C39:C59 C60:C63 C64:C67 C68:C70 C88:C91 C92:C93 C96:C97 C107:C108 C110:C113 C114:C117 C119:C124 C125:C130 C134:C137 C138:C139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B92 C92 C93 C107 B116 C116 B138 C138 C139 B2:B13 B14:B36 B37:B91 B93:B115 B117:B137 B139:B145 B147:B156 B157:B165 C2:C3 C7:C9 C14:C36 C37:C57 C58:C61 C62:C65 C66:C68 C86:C89 C90:C91 C94:C95 C105:C106 C108:C111 C112:C115 C117:C122 C123:C128 C132:C135 C136:C137">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
       <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+      <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5955,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5963,20 +5843,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5987,20 +5867,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6008,47 +5888,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6058,12 +5938,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6073,55 +5953,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6131,152 +6011,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6286,209 +6166,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="3:3">

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C47687-9625-4345-B8D5-682C77DDC98B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="400">
   <si>
     <t>Step No</t>
   </si>
@@ -376,9 +382,6 @@
   </si>
   <si>
     <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>primary</t>
   </si>
   <si>
     <t>APP_AUTHORIZE_PERSON</t>
@@ -1236,14 +1239,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,152 +1275,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,8 +1285,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
@@ -1444,192 +1297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1639,29 +1312,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1669,260 +1342,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1939,84 +1385,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2031,33 +1434,33 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2315,29 +1718,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="34" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3030,7 +2433,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:13">
       <c r="A33" s="10">
         <v>34</v>
       </c>
@@ -3052,7 +2455,7 @@
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:13">
       <c r="A34" s="10">
         <v>35</v>
       </c>
@@ -3072,7 +2475,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:13">
       <c r="A35" s="9">
         <v>36</v>
       </c>
@@ -3096,7 +2499,7 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:13">
       <c r="A36" s="10">
         <v>37</v>
       </c>
@@ -3118,7 +2521,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:13">
       <c r="A37" s="10">
         <v>38</v>
       </c>
@@ -3142,7 +2545,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:13">
       <c r="A38" s="9">
         <v>39</v>
       </c>
@@ -3166,7 +2569,7 @@
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:13">
+    <row r="39" spans="1:13">
       <c r="A39" s="10">
         <v>40</v>
       </c>
@@ -3195,7 +2598,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:13">
+    <row r="40" spans="1:13">
       <c r="A40" s="10">
         <v>41</v>
       </c>
@@ -3224,7 +2627,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" s="4" customFormat="1" spans="1:13">
+    <row r="41" spans="1:13">
       <c r="A41" s="9">
         <v>42</v>
       </c>
@@ -3249,7 +2652,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42" s="10">
         <v>43</v>
       </c>
@@ -3269,12 +2672,12 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43" s="10">
         <v>44</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>42</v>
+      <c r="B43" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>20</v>
@@ -3282,14 +2685,14 @@
       <c r="D43" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>116</v>
+      <c r="E43" s="9">
+        <v>1</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44" s="9">
         <v>45</v>
       </c>
@@ -3311,7 +2714,7 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45" s="10">
         <v>46</v>
       </c>
@@ -3331,7 +2734,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:8">
+    <row r="46" spans="1:13" s="5" customFormat="1">
       <c r="A46" s="10">
         <v>47</v>
       </c>
@@ -3342,14 +2745,14 @@
         <v>20</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" s="6" customFormat="1" spans="1:8">
+    <row r="47" spans="1:13" s="6" customFormat="1">
       <c r="A47" s="9">
         <v>48</v>
       </c>
@@ -3360,20 +2763,20 @@
         <v>15</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" s="5" customFormat="1" spans="1:8">
+    <row r="48" spans="1:13" s="5" customFormat="1">
       <c r="A48" s="10">
         <v>49</v>
       </c>
@@ -3384,20 +2787,20 @@
         <v>15</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" s="6" customFormat="1" spans="1:8">
+    <row r="49" spans="1:8" s="6" customFormat="1">
       <c r="A49" s="10">
         <v>50</v>
       </c>
@@ -3408,20 +2811,20 @@
         <v>20</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:8">
+    <row r="50" spans="1:8" s="5" customFormat="1">
       <c r="A50" s="9">
         <v>51</v>
       </c>
@@ -3432,20 +2835,20 @@
         <v>15</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:8">
+    <row r="51" spans="1:8" s="5" customFormat="1">
       <c r="A51" s="10">
         <v>52</v>
       </c>
@@ -3456,20 +2859,20 @@
         <v>20</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>102</v>
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:8">
+    <row r="52" spans="1:8" s="6" customFormat="1">
       <c r="A52" s="10">
         <v>53</v>
       </c>
@@ -3480,20 +2883,20 @@
         <v>15</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" s="5" customFormat="1" spans="1:8">
+    <row r="53" spans="1:8" s="5" customFormat="1">
       <c r="A53" s="9">
         <v>54</v>
       </c>
@@ -3504,20 +2907,20 @@
         <v>15</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="9">
         <v>10001</v>
       </c>
       <c r="F53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:8">
+    <row r="54" spans="1:8" s="6" customFormat="1">
       <c r="A54" s="10">
         <v>55</v>
       </c>
@@ -3528,20 +2931,20 @@
         <v>15</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="10">
         <v>9789123456</v>
       </c>
       <c r="F54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:8">
+    <row r="55" spans="1:8" s="5" customFormat="1">
       <c r="A55" s="10">
         <v>56</v>
       </c>
@@ -3552,20 +2955,20 @@
         <v>15</v>
       </c>
       <c r="D55" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:8">
+    <row r="56" spans="1:8" s="5" customFormat="1">
       <c r="A56" s="9">
         <v>57</v>
       </c>
@@ -3587,7 +2990,7 @@
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:8">
+    <row r="57" spans="1:8" s="6" customFormat="1">
       <c r="A57" s="10">
         <v>58</v>
       </c>
@@ -3607,7 +3010,7 @@
       </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:8">
+    <row r="58" spans="1:8" s="5" customFormat="1">
       <c r="A58" s="10">
         <v>59</v>
       </c>
@@ -3618,14 +3021,14 @@
         <v>15</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:8">
+    <row r="59" spans="1:8" s="6" customFormat="1">
       <c r="A59" s="9">
         <v>60</v>
       </c>
@@ -3641,7 +3044,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:8">
+    <row r="60" spans="1:8" s="5" customFormat="1">
       <c r="A60" s="10">
         <v>61</v>
       </c>
@@ -3652,14 +3055,14 @@
         <v>20</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:8">
+    <row r="61" spans="1:8" s="5" customFormat="1">
       <c r="A61" s="10">
         <v>62</v>
       </c>
@@ -3675,7 +3078,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:8">
+    <row r="62" spans="1:8" s="6" customFormat="1">
       <c r="A62" s="9">
         <v>63</v>
       </c>
@@ -3686,18 +3089,18 @@
         <v>15</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" s="5" customFormat="1" spans="1:8">
+    <row r="63" spans="1:8" s="5" customFormat="1">
       <c r="A63" s="10">
         <v>64</v>
       </c>
@@ -3713,27 +3116,27 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" s="6" customFormat="1" spans="1:8">
+    <row r="64" spans="1:8" s="6" customFormat="1">
       <c r="A64" s="10">
         <v>65</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H64" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:8">
+    <row r="65" spans="1:8" s="5" customFormat="1">
       <c r="A65" s="9">
         <v>66</v>
       </c>
@@ -3749,7 +3152,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:8">
+    <row r="66" spans="1:8" s="5" customFormat="1">
       <c r="A66" s="10">
         <v>67</v>
       </c>
@@ -3760,20 +3163,20 @@
         <v>20</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" s="6" customFormat="1" spans="1:8">
+    <row r="67" spans="1:8" s="6" customFormat="1">
       <c r="A67" s="10">
         <v>68</v>
       </c>
@@ -3789,25 +3192,25 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:8">
+    <row r="68" spans="1:8" s="5" customFormat="1">
       <c r="A68" s="9">
         <v>69</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:8">
+    <row r="69" spans="1:8" s="6" customFormat="1">
       <c r="A69" s="10">
         <v>70</v>
       </c>
@@ -3818,20 +3221,20 @@
         <v>20</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="F69" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:8">
+    <row r="70" spans="1:8" s="5" customFormat="1">
       <c r="A70" s="10">
         <v>71</v>
       </c>
@@ -3842,20 +3245,20 @@
         <v>15</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:8">
+    <row r="71" spans="1:8" s="5" customFormat="1">
       <c r="A71" s="9">
         <v>72</v>
       </c>
@@ -3866,20 +3269,20 @@
         <v>20</v>
       </c>
       <c r="D71" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="F71" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" s="6" customFormat="1" spans="1:8">
+    <row r="72" spans="1:8" s="6" customFormat="1">
       <c r="A72" s="10">
         <v>73</v>
       </c>
@@ -3890,20 +3293,20 @@
         <v>15</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:8">
+    <row r="73" spans="1:8" s="5" customFormat="1">
       <c r="A73" s="10">
         <v>74</v>
       </c>
@@ -3914,20 +3317,20 @@
         <v>15</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73" s="10">
         <v>1235647899</v>
       </c>
       <c r="F73" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" s="6" customFormat="1" spans="1:8">
+    <row r="74" spans="1:8" s="6" customFormat="1">
       <c r="A74" s="9">
         <v>75</v>
       </c>
@@ -3938,14 +3341,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:8">
+    <row r="75" spans="1:8" s="5" customFormat="1">
       <c r="A75" s="10">
         <v>76</v>
       </c>
@@ -3956,18 +3359,18 @@
         <v>20</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" s="5" customFormat="1" spans="1:8">
+    <row r="76" spans="1:8" s="5" customFormat="1">
       <c r="A76" s="10">
         <v>77</v>
       </c>
@@ -3978,20 +3381,20 @@
         <v>15</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E76" s="9">
         <v>97890456789</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" s="6" customFormat="1" spans="1:8">
+    <row r="77" spans="1:8" s="6" customFormat="1">
       <c r="A77" s="9">
         <v>78</v>
       </c>
@@ -4002,18 +3405,18 @@
         <v>20</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" s="5" customFormat="1" spans="1:8">
+    <row r="78" spans="1:8" s="5" customFormat="1">
       <c r="A78" s="10">
         <v>79</v>
       </c>
@@ -4024,20 +3427,20 @@
         <v>20</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E78" s="9">
         <v>1230</v>
       </c>
       <c r="F78" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" s="6" customFormat="1" spans="1:8">
+    <row r="79" spans="1:8" s="6" customFormat="1">
       <c r="A79" s="10">
         <v>80</v>
       </c>
@@ -4048,20 +3451,20 @@
         <v>20</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E79" s="10">
         <v>1550</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" s="6" customFormat="1" spans="1:8">
+    <row r="80" spans="1:8" s="6" customFormat="1">
       <c r="A80" s="9">
         <v>81</v>
       </c>
@@ -4072,18 +3475,18 @@
         <v>20</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" s="6" customFormat="1" spans="1:8">
+    <row r="81" spans="1:8" s="6" customFormat="1">
       <c r="A81" s="10">
         <v>82</v>
       </c>
@@ -4094,18 +3497,18 @@
         <v>20</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" s="6" customFormat="1" spans="1:8">
+    <row r="82" spans="1:8" s="6" customFormat="1">
       <c r="A82" s="10">
         <v>83</v>
       </c>
@@ -4116,18 +3519,18 @@
         <v>20</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" s="6" customFormat="1" spans="1:8">
+    <row r="83" spans="1:8" s="6" customFormat="1">
       <c r="A83" s="9">
         <v>84</v>
       </c>
@@ -4138,18 +3541,18 @@
         <v>20</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" s="5" customFormat="1" spans="1:8">
+    <row r="84" spans="1:8" s="5" customFormat="1">
       <c r="A84" s="10">
         <v>85</v>
       </c>
@@ -4171,7 +3574,7 @@
       </c>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" s="5" customFormat="1" spans="1:8">
+    <row r="85" spans="1:8" s="5" customFormat="1">
       <c r="A85" s="10">
         <v>86</v>
       </c>
@@ -4202,7 +3605,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -4236,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -4270,14 +3673,14 @@
         <v>15</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="H90" s="9"/>
     </row>
@@ -4302,16 +3705,16 @@
         <v>93</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H92" s="10">
         <v>6</v>
@@ -4344,14 +3747,14 @@
         <v>20</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="H94" s="10"/>
     </row>
@@ -4386,12 +3789,12 @@
         <v>15</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H96" s="10"/>
     </row>
@@ -4422,11 +3825,11 @@
         <v>20</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>35</v>
@@ -4460,13 +3863,13 @@
         <v>20</v>
       </c>
       <c r="D100" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="F100" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>102</v>
@@ -4484,11 +3887,11 @@
         <v>15</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>32</v>
@@ -4506,14 +3909,14 @@
         <v>15</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H102" s="10"/>
     </row>
@@ -4528,14 +3931,14 @@
         <v>15</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G103" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="H103" s="10"/>
     </row>
@@ -4570,7 +3973,7 @@
         <v>20</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -4604,11 +4007,11 @@
         <v>20</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>28</v>
@@ -4626,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
@@ -4642,20 +4045,20 @@
         <v>110</v>
       </c>
       <c r="B109" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H109" s="10"/>
     </row>
@@ -4670,14 +4073,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H110" s="10"/>
     </row>
@@ -4686,20 +4089,20 @@
         <v>112</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H111" s="10"/>
     </row>
@@ -4714,11 +4117,11 @@
         <v>20</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>35</v>
@@ -4736,11 +4139,11 @@
         <v>20</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>35</v>
@@ -4758,11 +4161,11 @@
         <v>20</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>35</v>
@@ -4780,16 +4183,16 @@
         <v>20</v>
       </c>
       <c r="D115" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H115" s="10"/>
     </row>
@@ -4804,16 +4207,16 @@
         <v>20</v>
       </c>
       <c r="D116" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="F116" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F116" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="G116" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H116" s="10"/>
     </row>
@@ -4828,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -4846,10 +4249,10 @@
         <v>20</v>
       </c>
       <c r="D118" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -4866,10 +4269,10 @@
         <v>20</v>
       </c>
       <c r="D119" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -4906,7 +4309,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E121" s="10">
         <v>9789045678</v>
@@ -4926,7 +4329,7 @@
         <v>15</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E122" s="10">
         <v>21331</v>
@@ -4946,7 +4349,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E123" s="10">
         <v>97989898982</v>
@@ -4966,10 +4369,10 @@
         <v>15</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -4986,10 +4389,10 @@
         <v>15</v>
       </c>
       <c r="D125" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -5006,10 +4409,10 @@
         <v>15</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -5026,7 +4429,7 @@
         <v>15</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -5060,7 +4463,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -5120,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -5154,7 +4557,7 @@
         <v>20</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -5188,14 +4591,14 @@
         <v>15</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G136" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="H136" s="10"/>
     </row>
@@ -5220,16 +4623,16 @@
         <v>139</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G138" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H138" s="10">
         <v>6</v>
@@ -5262,16 +4665,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E140" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F140" s="10" t="s">
+      <c r="G140" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="H140" s="10"/>
     </row>
@@ -5296,16 +4699,16 @@
         <v>143</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G142" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="H142" s="10"/>
     </row>
@@ -5320,14 +4723,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G143" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="H143" s="9"/>
     </row>
@@ -5342,14 +4745,14 @@
         <v>20</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G144" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="H144" s="10"/>
     </row>
@@ -5364,16 +4767,16 @@
         <v>20</v>
       </c>
       <c r="D145" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="F145" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="H145" s="9"/>
     </row>
@@ -5396,16 +4799,16 @@
         <v>147</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G147" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="H147" s="10"/>
     </row>
@@ -5420,16 +4823,16 @@
         <v>15</v>
       </c>
       <c r="D148" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="F148" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="H148" s="9"/>
     </row>
@@ -5444,16 +4847,16 @@
         <v>15</v>
       </c>
       <c r="D149" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="F149" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="G149" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5510,14 +4913,14 @@
         <v>20</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G152" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="H152" s="10"/>
     </row>
@@ -5548,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -5582,14 +4985,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G156" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="H156" s="10"/>
     </row>
@@ -5606,10 +5009,10 @@
         <v>3</v>
       </c>
       <c r="F157" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G157" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="H157" s="9"/>
     </row>
@@ -5624,14 +5027,14 @@
         <v>20</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G158" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="H158" s="10"/>
     </row>
@@ -5646,14 +5049,14 @@
         <v>20</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G159" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="H159" s="9"/>
     </row>
@@ -5684,16 +5087,16 @@
         <v>15</v>
       </c>
       <c r="D161" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="F161" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="G161" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="H161" s="9"/>
     </row>
@@ -5708,16 +5111,16 @@
         <v>15</v>
       </c>
       <c r="D162" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F162" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E162" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F162" s="10" t="s">
+      <c r="G162" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="H162" s="10"/>
     </row>
@@ -5732,16 +5135,16 @@
         <v>15</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E163" s="9">
         <v>9889656446</v>
       </c>
       <c r="F163" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G163" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="G163" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H163" s="9"/>
     </row>
@@ -5756,14 +5159,14 @@
         <v>15</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G164" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="H164" s="10"/>
     </row>
@@ -5788,587 +5191,607 @@
       <c r="H165" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B166:B1048576">
-      <formula1>DataList!$C$2:$C$120</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C166:C1048576">
-      <formula1>DataList!$A$2:$A$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B92 C92 C93 C107 B116 C116 B138 C138 C139 B2:B13 B14:B36 B37:B91 B93:B115 B117:B137 B139:B145 B147:B156 B157:B165 C2:C3 C7:C9 C14:C36 C37:C57 C58:C61 C62:C65 C66:C68 C86:C89 C90:C91 C94:C95 C105:C106 C108:C111 C112:C115 C117:C122 C123:C128 C132:C135 C136:C137">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>DataList!$C$2:$C$120</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1 B166:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1 C166:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B147:B165 C2:C68 C86:C95 C105:C128 C132:C139 B2:B42 B44:B145</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C130</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B146</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>302</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
         <v>309</v>
-      </c>
-      <c r="C8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>314</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>316</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>327</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>373</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>375</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>381</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6383,13 +5806,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C47687-9625-4345-B8D5-682C77DDC98B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>Step No</t>
   </si>
@@ -381,6 +375,9 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
@@ -795,6 +792,9 @@
     <t>PRIMAY_DIAGNOSIS</t>
   </si>
   <si>
+    <t>con</t>
+  </si>
+  <si>
     <t>Type Primary Diagnosis</t>
   </si>
   <si>
@@ -1021,9 +1021,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1239,8 +1236,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,8 +1278,152 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,8 +1432,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
@@ -1297,12 +1444,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1312,29 +1645,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,69 +1675,355 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1419,7 +2038,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1434,7 +2053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1449,18 +2068,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1718,29 +2337,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.8571428571429" style="6" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="6" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2433,7 +3052,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:8">
       <c r="A33" s="10">
         <v>34</v>
       </c>
@@ -2455,7 +3074,7 @@
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:8">
       <c r="A34" s="10">
         <v>35</v>
       </c>
@@ -2475,7 +3094,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:8">
       <c r="A35" s="9">
         <v>36</v>
       </c>
@@ -2499,7 +3118,7 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:8">
       <c r="A36" s="10">
         <v>37</v>
       </c>
@@ -2521,7 +3140,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:8">
       <c r="A37" s="10">
         <v>38</v>
       </c>
@@ -2545,7 +3164,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:8">
       <c r="A38" s="9">
         <v>39</v>
       </c>
@@ -2592,7 +3211,7 @@
         <v>61</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -2646,13 +3265,13 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:8">
       <c r="A42" s="10">
         <v>43</v>
       </c>
@@ -2672,18 +3291,18 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:8">
       <c r="A43" s="10">
         <v>44</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>329</v>
+      <c r="B43" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E43" s="9">
         <v>1</v>
@@ -2692,7 +3311,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:8">
       <c r="A44" s="9">
         <v>45</v>
       </c>
@@ -2714,7 +3333,7 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:8">
       <c r="A45" s="10">
         <v>46</v>
       </c>
@@ -2734,7 +3353,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:13" s="5" customFormat="1">
+    <row r="46" s="4" customFormat="1" spans="1:8">
       <c r="A46" s="10">
         <v>47</v>
       </c>
@@ -2745,14 +3364,14 @@
         <v>20</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:13" s="6" customFormat="1">
+    <row r="47" s="5" customFormat="1" spans="1:8">
       <c r="A47" s="9">
         <v>48</v>
       </c>
@@ -2763,20 +3382,20 @@
         <v>15</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:13" s="5" customFormat="1">
+    <row r="48" s="4" customFormat="1" spans="1:8">
       <c r="A48" s="10">
         <v>49</v>
       </c>
@@ -2787,20 +3406,20 @@
         <v>15</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" s="6" customFormat="1">
+    <row r="49" s="5" customFormat="1" spans="1:8">
       <c r="A49" s="10">
         <v>50</v>
       </c>
@@ -2811,20 +3430,20 @@
         <v>20</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1">
+    <row r="50" s="4" customFormat="1" spans="1:8">
       <c r="A50" s="9">
         <v>51</v>
       </c>
@@ -2835,20 +3454,20 @@
         <v>15</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1">
+    <row r="51" s="4" customFormat="1" spans="1:8">
       <c r="A51" s="10">
         <v>52</v>
       </c>
@@ -2859,20 +3478,20 @@
         <v>20</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>102</v>
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" s="6" customFormat="1">
+    <row r="52" s="5" customFormat="1" spans="1:8">
       <c r="A52" s="10">
         <v>53</v>
       </c>
@@ -2883,20 +3502,20 @@
         <v>15</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" s="5" customFormat="1">
+    <row r="53" s="4" customFormat="1" spans="1:8">
       <c r="A53" s="9">
         <v>54</v>
       </c>
@@ -2907,20 +3526,20 @@
         <v>15</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E53" s="9">
         <v>10001</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" s="6" customFormat="1">
+    <row r="54" s="5" customFormat="1" spans="1:8">
       <c r="A54" s="10">
         <v>55</v>
       </c>
@@ -2931,20 +3550,20 @@
         <v>15</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="10">
         <v>9789123456</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" s="5" customFormat="1">
+    <row r="55" s="4" customFormat="1" spans="1:8">
       <c r="A55" s="10">
         <v>56</v>
       </c>
@@ -2955,20 +3574,20 @@
         <v>15</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1">
+    <row r="56" s="4" customFormat="1" spans="1:8">
       <c r="A56" s="9">
         <v>57</v>
       </c>
@@ -2990,7 +3609,7 @@
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" s="6" customFormat="1">
+    <row r="57" s="5" customFormat="1" spans="1:8">
       <c r="A57" s="10">
         <v>58</v>
       </c>
@@ -3010,7 +3629,7 @@
       </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" s="5" customFormat="1">
+    <row r="58" s="4" customFormat="1" spans="1:8">
       <c r="A58" s="10">
         <v>59</v>
       </c>
@@ -3021,14 +3640,14 @@
         <v>15</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" s="6" customFormat="1">
+    <row r="59" s="5" customFormat="1" spans="1:8">
       <c r="A59" s="9">
         <v>60</v>
       </c>
@@ -3044,7 +3663,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1">
+    <row r="60" s="4" customFormat="1" spans="1:8">
       <c r="A60" s="10">
         <v>61</v>
       </c>
@@ -3055,14 +3674,14 @@
         <v>20</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" s="5" customFormat="1">
+    <row r="61" s="4" customFormat="1" spans="1:8">
       <c r="A61" s="10">
         <v>62</v>
       </c>
@@ -3078,7 +3697,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" s="6" customFormat="1">
+    <row r="62" s="5" customFormat="1" spans="1:8">
       <c r="A62" s="9">
         <v>63</v>
       </c>
@@ -3089,18 +3708,18 @@
         <v>15</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1">
+    <row r="63" s="4" customFormat="1" spans="1:8">
       <c r="A63" s="10">
         <v>64</v>
       </c>
@@ -3116,27 +3735,27 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" s="6" customFormat="1">
+    <row r="64" s="5" customFormat="1" spans="1:8">
       <c r="A64" s="10">
         <v>65</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H64" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1">
+    <row r="65" s="4" customFormat="1" spans="1:8">
       <c r="A65" s="9">
         <v>66</v>
       </c>
@@ -3152,7 +3771,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1">
+    <row r="66" s="4" customFormat="1" spans="1:8">
       <c r="A66" s="10">
         <v>67</v>
       </c>
@@ -3163,20 +3782,20 @@
         <v>20</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" s="6" customFormat="1">
+    <row r="67" s="5" customFormat="1" spans="1:8">
       <c r="A67" s="10">
         <v>68</v>
       </c>
@@ -3192,25 +3811,25 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" s="5" customFormat="1">
+    <row r="68" s="4" customFormat="1" spans="1:8">
       <c r="A68" s="9">
         <v>69</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" s="6" customFormat="1">
+    <row r="69" s="5" customFormat="1" spans="1:8">
       <c r="A69" s="10">
         <v>70</v>
       </c>
@@ -3221,20 +3840,20 @@
         <v>20</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1">
+    <row r="70" s="4" customFormat="1" spans="1:8">
       <c r="A70" s="10">
         <v>71</v>
       </c>
@@ -3245,20 +3864,20 @@
         <v>15</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" s="5" customFormat="1">
+    <row r="71" s="4" customFormat="1" spans="1:8">
       <c r="A71" s="9">
         <v>72</v>
       </c>
@@ -3269,20 +3888,20 @@
         <v>20</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" s="6" customFormat="1">
+    <row r="72" s="5" customFormat="1" spans="1:8">
       <c r="A72" s="10">
         <v>73</v>
       </c>
@@ -3293,20 +3912,20 @@
         <v>15</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" s="5" customFormat="1">
+    <row r="73" s="4" customFormat="1" spans="1:8">
       <c r="A73" s="10">
         <v>74</v>
       </c>
@@ -3317,20 +3936,20 @@
         <v>15</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E73" s="10">
         <v>1235647899</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" s="6" customFormat="1">
+    <row r="74" s="5" customFormat="1" spans="1:8">
       <c r="A74" s="9">
         <v>75</v>
       </c>
@@ -3341,14 +3960,14 @@
         <v>20</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" s="5" customFormat="1">
+    <row r="75" s="4" customFormat="1" spans="1:8">
       <c r="A75" s="10">
         <v>76</v>
       </c>
@@ -3359,18 +3978,18 @@
         <v>20</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:8">
       <c r="A76" s="10">
         <v>77</v>
       </c>
@@ -3381,20 +4000,20 @@
         <v>15</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E76" s="9">
         <v>97890456789</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" s="6" customFormat="1">
+    <row r="77" s="5" customFormat="1" spans="1:8">
       <c r="A77" s="9">
         <v>78</v>
       </c>
@@ -3405,18 +4024,18 @@
         <v>20</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1">
+    <row r="78" s="4" customFormat="1" spans="1:8">
       <c r="A78" s="10">
         <v>79</v>
       </c>
@@ -3427,20 +4046,20 @@
         <v>20</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E78" s="9">
         <v>1230</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" s="6" customFormat="1">
+    <row r="79" s="5" customFormat="1" spans="1:8">
       <c r="A79" s="10">
         <v>80</v>
       </c>
@@ -3451,20 +4070,20 @@
         <v>20</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E79" s="10">
         <v>1550</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" s="6" customFormat="1">
+    <row r="80" s="5" customFormat="1" spans="1:8">
       <c r="A80" s="9">
         <v>81</v>
       </c>
@@ -3475,18 +4094,18 @@
         <v>20</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" s="6" customFormat="1">
+    <row r="81" s="5" customFormat="1" spans="1:8">
       <c r="A81" s="10">
         <v>82</v>
       </c>
@@ -3497,18 +4116,18 @@
         <v>20</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" s="6" customFormat="1">
+    <row r="82" s="5" customFormat="1" spans="1:8">
       <c r="A82" s="10">
         <v>83</v>
       </c>
@@ -3519,18 +4138,18 @@
         <v>20</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" s="6" customFormat="1">
+    <row r="83" s="5" customFormat="1" spans="1:8">
       <c r="A83" s="9">
         <v>84</v>
       </c>
@@ -3541,18 +4160,18 @@
         <v>20</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" s="5" customFormat="1">
+    <row r="84" s="4" customFormat="1" spans="1:8">
       <c r="A84" s="10">
         <v>85</v>
       </c>
@@ -3574,7 +4193,7 @@
       </c>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" s="5" customFormat="1">
+    <row r="85" s="4" customFormat="1" spans="1:8">
       <c r="A85" s="10">
         <v>86</v>
       </c>
@@ -3605,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -3639,7 +4258,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -3673,14 +4292,14 @@
         <v>15</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H90" s="9"/>
     </row>
@@ -3705,16 +4324,16 @@
         <v>93</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H92" s="10">
         <v>6</v>
@@ -3746,15 +4365,15 @@
       <c r="C94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>202</v>
+      <c r="D94" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H94" s="10"/>
     </row>
@@ -3788,13 +4407,13 @@
       <c r="C96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>205</v>
+      <c r="D96" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H96" s="10"/>
     </row>
@@ -3824,12 +4443,12 @@
       <c r="C98" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>206</v>
+      <c r="D98" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>35</v>
@@ -3844,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="12"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="9">
         <v>3</v>
       </c>
@@ -3862,14 +4481,14 @@
       <c r="C100" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>208</v>
+      <c r="D100" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>102</v>
@@ -3886,12 +4505,12 @@
       <c r="C101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>211</v>
+      <c r="D101" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>32</v>
@@ -3908,15 +4527,15 @@
       <c r="C102" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>212</v>
+      <c r="D102" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H102" s="10"/>
     </row>
@@ -3930,15 +4549,15 @@
       <c r="C103" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>214</v>
+      <c r="D103" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H103" s="10"/>
     </row>
@@ -3972,8 +4591,8 @@
       <c r="C105" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="12" t="s">
-        <v>217</v>
+      <c r="D105" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -4006,12 +4625,12 @@
       <c r="C107" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>218</v>
+      <c r="D107" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>28</v>
@@ -4028,8 +4647,8 @@
       <c r="C108" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>219</v>
+      <c r="D108" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
@@ -4045,20 +4664,20 @@
         <v>110</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="14" t="s">
-        <v>221</v>
+      <c r="D109" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H109" s="10"/>
     </row>
@@ -4072,15 +4691,15 @@
       <c r="C110" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="14" t="s">
-        <v>223</v>
+      <c r="D110" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H110" s="10"/>
     </row>
@@ -4089,20 +4708,20 @@
         <v>112</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="14" t="s">
-        <v>224</v>
+      <c r="D111" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H111" s="10"/>
     </row>
@@ -4116,12 +4735,12 @@
       <c r="C112" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>226</v>
+      <c r="D112" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>35</v>
@@ -4138,12 +4757,12 @@
       <c r="C113" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>228</v>
+      <c r="D113" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>35</v>
@@ -4160,12 +4779,12 @@
       <c r="C114" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>230</v>
+      <c r="D114" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>35</v>
@@ -4182,17 +4801,17 @@
       <c r="C115" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>232</v>
+      <c r="D115" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H115" s="10"/>
     </row>
@@ -4206,17 +4825,17 @@
       <c r="C116" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="14" t="s">
-        <v>235</v>
+      <c r="D116" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H116" s="10"/>
     </row>
@@ -4230,8 +4849,8 @@
       <c r="C117" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>238</v>
+      <c r="D117" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -4248,11 +4867,11 @@
       <c r="C118" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E118" s="15" t="s">
+      <c r="D118" s="15" t="s">
         <v>240</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -4268,11 +4887,11 @@
       <c r="C119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>241</v>
+      <c r="D119" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -4288,7 +4907,7 @@
       <c r="C120" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E120" s="10">
@@ -4308,8 +4927,8 @@
       <c r="C121" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="14" t="s">
-        <v>243</v>
+      <c r="D121" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="E121" s="10">
         <v>9789045678</v>
@@ -4328,8 +4947,8 @@
       <c r="C122" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="14" t="s">
-        <v>244</v>
+      <c r="D122" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="E122" s="10">
         <v>21331</v>
@@ -4348,8 +4967,8 @@
       <c r="C123" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="14" t="s">
-        <v>245</v>
+      <c r="D123" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="E123" s="10">
         <v>97989898982</v>
@@ -4368,11 +4987,11 @@
       <c r="C124" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="14" t="s">
-        <v>246</v>
+      <c r="D124" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -4388,11 +5007,11 @@
       <c r="C125" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="14" t="s">
-        <v>247</v>
+      <c r="D125" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -4408,11 +5027,11 @@
       <c r="C126" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>249</v>
+      <c r="D126" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -4428,8 +5047,8 @@
       <c r="C127" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>250</v>
+      <c r="D127" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -4463,7 +5082,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -4523,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -4557,7 +5176,7 @@
         <v>20</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -4591,14 +5210,14 @@
         <v>15</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H136" s="10"/>
     </row>
@@ -4623,16 +5242,16 @@
         <v>139</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H138" s="10">
         <v>6</v>
@@ -4665,16 +5284,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H140" s="10"/>
     </row>
@@ -4699,16 +5318,16 @@
         <v>143</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H142" s="10"/>
     </row>
@@ -4723,14 +5342,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H143" s="9"/>
     </row>
@@ -4745,14 +5364,14 @@
         <v>20</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H144" s="10"/>
     </row>
@@ -4767,16 +5386,16 @@
         <v>20</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H145" s="9"/>
     </row>
@@ -4799,16 +5418,16 @@
         <v>147</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H147" s="10"/>
     </row>
@@ -4823,16 +5442,16 @@
         <v>15</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H148" s="9"/>
     </row>
@@ -4847,16 +5466,16 @@
         <v>15</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -4913,14 +5532,14 @@
         <v>20</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H152" s="10"/>
     </row>
@@ -4951,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -4985,14 +5604,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H156" s="10"/>
     </row>
@@ -5009,10 +5628,10 @@
         <v>3</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H157" s="9"/>
     </row>
@@ -5027,14 +5646,14 @@
         <v>20</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H158" s="10"/>
     </row>
@@ -5049,14 +5668,14 @@
         <v>20</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H159" s="9"/>
     </row>
@@ -5087,16 +5706,16 @@
         <v>15</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H161" s="9"/>
     </row>
@@ -5111,16 +5730,16 @@
         <v>15</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H162" s="10"/>
     </row>
@@ -5135,16 +5754,16 @@
         <v>15</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E163" s="9">
         <v>9889656446</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H163" s="9"/>
     </row>
@@ -5159,14 +5778,14 @@
         <v>15</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H164" s="10"/>
     </row>
@@ -5191,607 +5810,584 @@
       <c r="H165" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>DataList!$C$2:$C$120</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1 B166:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>DataList!$A$2:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1 C166:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B147:B165 C2:C68 C86:C95 C105:C128 C132:C139 B2:B42 B44:B145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C130</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B146</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B166:B1048576">
+      <formula1>DataList!$C$2:$C$120</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C166:C1048576">
+      <formula1>DataList!$A$2:$A$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146 B2:B42 B44:B145 B147:B165 C2:C68 C86:C95 C105:C128 C132:C139">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5806,12 +6402,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
   <si>
     <t>Step No</t>
   </si>
@@ -516,9 +517,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -538,9 +536,6 @@
   </si>
   <si>
     <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
   </si>
   <si>
     <t>Insurance type selected</t>
@@ -1238,9 +1233,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -1280,6 +1275,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1294,14 +1296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1310,25 +1304,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,16 +1342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,27 +1351,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,15 +1365,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,8 +1386,39 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,25 +1445,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,79 +1529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,13 +1547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,13 +1565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,19 +1583,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,8 +1629,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1689,6 +1690,17 @@
       <right style="thin">
         <color theme="4" tint="0.399975585192419"/>
       </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.399975585192419"/>
       </top>
@@ -1798,13 +1810,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1816,134 +1828,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1957,6 +1969,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2062,6 +2075,21 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2345,8 +2373,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -3833,8 +3861,8 @@
       <c r="A69" s="10">
         <v>70</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>42</v>
+      <c r="B69" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>20</v>
@@ -3842,14 +3870,14 @@
       <c r="D69" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="10">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="H69" s="10"/>
     </row>
@@ -3864,16 +3892,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -3881,23 +3909,23 @@
       <c r="A71" s="9">
         <v>72</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>42</v>
+      <c r="B71" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>159</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H71" s="10"/>
     </row>
@@ -3912,16 +3940,16 @@
         <v>15</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="H72" s="9"/>
     </row>
@@ -3936,16 +3964,16 @@
         <v>15</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E73" s="10">
         <v>1235647899</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H73" s="10"/>
     </row>
@@ -3960,7 +3988,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -3978,14 +4006,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -4000,16 +4028,16 @@
         <v>15</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E76" s="9">
         <v>97890456789</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H76" s="9"/>
     </row>
@@ -4024,14 +4052,14 @@
         <v>20</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H77" s="10"/>
     </row>
@@ -4046,16 +4074,16 @@
         <v>20</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E78" s="9">
         <v>1230</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H78" s="9"/>
     </row>
@@ -4070,16 +4098,16 @@
         <v>20</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E79" s="10">
         <v>1550</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H79" s="10"/>
     </row>
@@ -4094,14 +4122,14 @@
         <v>20</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H80" s="9"/>
     </row>
@@ -4116,14 +4144,14 @@
         <v>20</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4138,14 +4166,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H82" s="9"/>
     </row>
@@ -4160,14 +4188,14 @@
         <v>20</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H83" s="10"/>
     </row>
@@ -4365,15 +4393,15 @@
       <c r="C94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>203</v>
+      <c r="D94" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H94" s="10"/>
     </row>
@@ -4408,12 +4436,12 @@
         <v>15</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H96" s="10"/>
     </row>
@@ -4443,12 +4471,12 @@
       <c r="C98" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>207</v>
+      <c r="D98" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>35</v>
@@ -4463,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="13"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="9">
         <v>3</v>
       </c>
@@ -4482,13 +4510,13 @@
         <v>20</v>
       </c>
       <c r="D100" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>102</v>
@@ -4505,8 +4533,8 @@
       <c r="C101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>212</v>
+      <c r="D101" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
@@ -4527,15 +4555,15 @@
       <c r="C102" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="15" t="s">
-        <v>213</v>
+      <c r="D102" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H102" s="10"/>
     </row>
@@ -4550,14 +4578,14 @@
         <v>15</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H103" s="10"/>
     </row>
@@ -4591,8 +4619,8 @@
       <c r="C105" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>218</v>
+      <c r="D105" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -4625,8 +4653,8 @@
       <c r="C107" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="15" t="s">
-        <v>219</v>
+      <c r="D107" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
@@ -4647,8 +4675,8 @@
       <c r="C108" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>220</v>
+      <c r="D108" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
@@ -4664,20 +4692,20 @@
         <v>110</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>222</v>
+      <c r="D109" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H109" s="10"/>
     </row>
@@ -4691,15 +4719,15 @@
       <c r="C110" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="15" t="s">
-        <v>224</v>
+      <c r="D110" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H110" s="10"/>
     </row>
@@ -4708,20 +4736,20 @@
         <v>112</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="15" t="s">
-        <v>225</v>
+      <c r="D111" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H111" s="10"/>
     </row>
@@ -4735,12 +4763,12 @@
       <c r="C112" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>227</v>
+      <c r="D112" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>35</v>
@@ -4757,12 +4785,12 @@
       <c r="C113" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>229</v>
+      <c r="D113" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>35</v>
@@ -4779,12 +4807,12 @@
       <c r="C114" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>231</v>
+      <c r="D114" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>35</v>
@@ -4801,17 +4829,17 @@
       <c r="C115" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="13" t="s">
-        <v>233</v>
+      <c r="D115" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H115" s="10"/>
     </row>
@@ -4825,14 +4853,14 @@
       <c r="C116" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>131</v>
@@ -4849,8 +4877,8 @@
       <c r="C117" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>239</v>
+      <c r="D117" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -4867,11 +4895,11 @@
       <c r="C118" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>241</v>
+      <c r="D118" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -4887,11 +4915,11 @@
       <c r="C119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="15" t="s">
-        <v>242</v>
+      <c r="D119" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -4907,7 +4935,7 @@
       <c r="C120" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="D120" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E120" s="10">
@@ -4927,8 +4955,8 @@
       <c r="C121" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="15" t="s">
-        <v>244</v>
+      <c r="D121" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="E121" s="10">
         <v>9789045678</v>
@@ -4947,8 +4975,8 @@
       <c r="C122" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="15" t="s">
-        <v>245</v>
+      <c r="D122" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="E122" s="10">
         <v>21331</v>
@@ -4967,8 +4995,8 @@
       <c r="C123" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="15" t="s">
-        <v>246</v>
+      <c r="D123" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="E123" s="10">
         <v>97989898982</v>
@@ -4987,8 +5015,8 @@
       <c r="C124" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="15" t="s">
-        <v>247</v>
+      <c r="D124" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>143</v>
@@ -5007,11 +5035,11 @@
       <c r="C125" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="15" t="s">
-        <v>248</v>
+      <c r="D125" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -5027,8 +5055,8 @@
       <c r="C126" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>250</v>
+      <c r="D126" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>143</v>
@@ -5047,8 +5075,8 @@
       <c r="C127" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="15" t="s">
-        <v>251</v>
+      <c r="D127" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -5082,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -5284,16 +5312,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="G140" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="H140" s="10"/>
     </row>
@@ -5324,10 +5352,10 @@
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H142" s="10"/>
     </row>
@@ -5342,14 +5370,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H143" s="9"/>
     </row>
@@ -5364,14 +5392,14 @@
         <v>20</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H144" s="10"/>
     </row>
@@ -5386,16 +5414,16 @@
         <v>20</v>
       </c>
       <c r="D145" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="H145" s="9"/>
     </row>
@@ -5424,10 +5452,10 @@
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H147" s="10"/>
     </row>
@@ -5442,16 +5470,16 @@
         <v>15</v>
       </c>
       <c r="D148" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="H148" s="9"/>
     </row>
@@ -5466,16 +5494,16 @@
         <v>15</v>
       </c>
       <c r="D149" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F149" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="G149" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5532,14 +5560,14 @@
         <v>20</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H152" s="10"/>
     </row>
@@ -5570,7 +5598,7 @@
         <v>20</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -5604,14 +5632,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H156" s="10"/>
     </row>
@@ -5628,10 +5656,10 @@
         <v>3</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H157" s="9"/>
     </row>
@@ -5646,14 +5674,14 @@
         <v>20</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H158" s="10"/>
     </row>
@@ -5668,14 +5696,14 @@
         <v>20</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H159" s="9"/>
     </row>
@@ -5706,16 +5734,16 @@
         <v>15</v>
       </c>
       <c r="D161" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="G161" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="H161" s="9"/>
     </row>
@@ -5730,16 +5758,16 @@
         <v>15</v>
       </c>
       <c r="D162" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G162" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="H162" s="10"/>
     </row>
@@ -5754,7 +5782,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E163" s="9">
         <v>9889656446</v>
@@ -5778,14 +5806,14 @@
         <v>15</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H164" s="10"/>
     </row>
@@ -5810,21 +5838,24 @@
       <c r="H165" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B166:B1048576">
       <formula1>DataList!$C$2:$C$120</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C166:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69 B71">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70 B146 B2:B42 B44:B68 B72:B145 B147:B165 C2:C68 C86:C95 C105:C128 C132:C139">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
       <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146 B2:B42 B44:B145 B147:B165 C2:C68 C86:C95 C105:C128 C132:C139">
-      <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5854,7 +5885,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5862,20 +5893,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5886,20 +5917,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5907,47 +5938,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5957,12 +5988,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5972,45 +6003,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -6020,7 +6051,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6030,152 +6061,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6185,209 +6216,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="3:3">

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
@@ -163,7 +163,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>NewFundV</t>
+    <t>Breast Cancer Silo*</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1274,23 +1274,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,14 +1291,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,54 +1329,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,14 +1380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1417,8 +1387,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,13 +1445,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,19 +1535,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,19 +1595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,31 +1607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,91 +1619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,6 +1704,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1725,15 +1743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1745,6 +1754,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,9 +1784,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1781,36 +1801,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1828,130 +1822,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1969,7 +1963,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2373,8 +2367,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398">
   <si>
     <t>Step No</t>
   </si>
@@ -746,9 +746,6 @@
   </si>
   <si>
     <t>ADD_PROV_PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>Alaska</t>
   </si>
   <si>
     <t>ADD_PROV_CITY</t>
@@ -1274,9 +1271,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,16 +1300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,9 +1316,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,59 +1347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,6 +1361,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1404,15 +1384,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,7 +1442,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,19 +1580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,145 +1622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,17 +1701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,6 +1759,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1792,19 +1798,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1822,130 +1819,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2367,8 +2364,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -4884,7 +4881,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>20</v>
@@ -4892,8 +4889,8 @@
       <c r="D118" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>239</v>
+      <c r="E118" s="17">
+        <v>2</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -4910,10 +4907,10 @@
         <v>20</v>
       </c>
       <c r="D119" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -4950,7 +4947,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E121" s="10">
         <v>9789045678</v>
@@ -4970,7 +4967,7 @@
         <v>15</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E122" s="10">
         <v>21331</v>
@@ -4990,7 +4987,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E123" s="10">
         <v>97989898982</v>
@@ -5010,7 +5007,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>143</v>
@@ -5030,10 +5027,10 @@
         <v>15</v>
       </c>
       <c r="D125" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -5050,7 +5047,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>143</v>
@@ -5070,7 +5067,7 @@
         <v>15</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -5104,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -5306,16 +5303,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="F140" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="G140" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="H140" s="10"/>
     </row>
@@ -5346,10 +5343,10 @@
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G142" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="H142" s="10"/>
     </row>
@@ -5364,14 +5361,14 @@
         <v>20</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G143" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="H143" s="9"/>
     </row>
@@ -5390,10 +5387,10 @@
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G144" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="H144" s="10"/>
     </row>
@@ -5408,16 +5405,16 @@
         <v>20</v>
       </c>
       <c r="D145" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="F145" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="H145" s="9"/>
     </row>
@@ -5446,10 +5443,10 @@
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G147" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="H147" s="10"/>
     </row>
@@ -5464,16 +5461,16 @@
         <v>15</v>
       </c>
       <c r="D148" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="F148" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="H148" s="9"/>
     </row>
@@ -5488,16 +5485,16 @@
         <v>15</v>
       </c>
       <c r="D149" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="F149" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="G149" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="H149" s="10"/>
     </row>
@@ -5554,14 +5551,14 @@
         <v>20</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G152" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="H152" s="10"/>
     </row>
@@ -5592,7 +5589,7 @@
         <v>20</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -5626,14 +5623,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G156" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="H156" s="10"/>
     </row>
@@ -5650,10 +5647,10 @@
         <v>3</v>
       </c>
       <c r="F157" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G157" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="H157" s="9"/>
     </row>
@@ -5668,14 +5665,14 @@
         <v>20</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G158" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="H158" s="10"/>
     </row>
@@ -5690,14 +5687,14 @@
         <v>20</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G159" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="H159" s="9"/>
     </row>
@@ -5728,16 +5725,16 @@
         <v>15</v>
       </c>
       <c r="D161" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="F161" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="G161" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="H161" s="9"/>
     </row>
@@ -5752,16 +5749,16 @@
         <v>15</v>
       </c>
       <c r="D162" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F162" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E162" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F162" s="10" t="s">
+      <c r="G162" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="H162" s="10"/>
     </row>
@@ -5776,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E163" s="9">
         <v>9889656446</v>
@@ -5800,14 +5797,14 @@
         <v>15</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G164" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="H164" s="10"/>
     </row>
@@ -5879,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5887,20 +5884,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
         <v>301</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5911,20 +5908,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
         <v>305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5932,47 +5929,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
         <v>308</v>
-      </c>
-      <c r="C8" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
         <v>313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" t="s">
         <v>315</v>
-      </c>
-      <c r="C11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5982,12 +5979,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5997,45 +5994,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -6045,7 +6042,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6055,152 +6052,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6210,209 +6207,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="3:3">
